--- a/TCB04.xlsx
+++ b/TCB04.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>TestcaseID</t>
   </si>
@@ -56,32 +56,35 @@
     <t>TC-B04-005</t>
   </si>
   <si>
-    <t>duync</t>
-  </si>
-  <si>
     <t>Duy</t>
   </si>
   <si>
     <t>Nguyen</t>
   </si>
   <si>
-    <t>duync2002@gmail.com</t>
-  </si>
-  <si>
-    <t>duy@gmail.com</t>
-  </si>
-  <si>
     <t>id_password</t>
   </si>
   <si>
     <t>helloworld</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>duync01</t>
+  </si>
+  <si>
+    <t>duy01@gmail.com</t>
+  </si>
+  <si>
+    <t>duync02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +101,12 @@
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,9 +130,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -405,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,10 +428,11 @@
     <col min="3" max="3" width="17.44140625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="21.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="36.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -440,66 +451,70 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
